--- a/data/trans_orig/P1403-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P1403-Estudios-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>269364</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>241692</v>
+        <v>241216</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>296396</v>
+        <v>298141</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.2610813998186984</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.2342605500565539</v>
+        <v>0.2337990721748418</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2872820679049125</v>
+        <v>0.2889742110912572</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>428</v>
@@ -765,19 +765,19 @@
         <v>440821</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>403442</v>
+        <v>403611</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>474545</v>
+        <v>473284</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.3351965600411055</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.3067737933319505</v>
+        <v>0.3069020367925904</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.3608397329270603</v>
+        <v>0.3598806513995829</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>708</v>
@@ -786,19 +786,19 @@
         <v>710185</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>672916</v>
+        <v>666144</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>759324</v>
+        <v>754802</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.3026138312976295</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.2867333155985969</v>
+        <v>0.2838480053964857</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.3235522876059372</v>
+        <v>0.3216254302379659</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>762359</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>735327</v>
+        <v>733582</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>790031</v>
+        <v>790507</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.7389186001813016</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.7127179320950877</v>
+        <v>0.7110257889087425</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.7657394499434463</v>
+        <v>0.7662009278251583</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>863</v>
@@ -836,19 +836,19 @@
         <v>874292</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>840568</v>
+        <v>841829</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>911671</v>
+        <v>911502</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.6648034399588945</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.6391602670729403</v>
+        <v>0.6401193486004171</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.6932262066680496</v>
+        <v>0.6930979632074096</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1621</v>
@@ -857,19 +857,19 @@
         <v>1636650</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1587511</v>
+        <v>1592033</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1673919</v>
+        <v>1680691</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.6973861687023706</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.6764477123940628</v>
+        <v>0.6783745697620346</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.7132666844014031</v>
+        <v>0.7161519946035143</v>
       </c>
     </row>
     <row r="6">
@@ -961,19 +961,19 @@
         <v>118624</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>99050</v>
+        <v>98905</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>139561</v>
+        <v>141001</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.07005045999297087</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.05849119404679491</v>
+        <v>0.05840565206035808</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.08241430390760664</v>
+        <v>0.08326428300826257</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>100</v>
@@ -982,19 +982,19 @@
         <v>104154</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>87415</v>
+        <v>84848</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>123529</v>
+        <v>123545</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.06560158053764438</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.05505835655011964</v>
+        <v>0.05344183086788586</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.07780493680487792</v>
+        <v>0.07781530759879726</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>220</v>
@@ -1003,19 +1003,19 @@
         <v>222778</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>197281</v>
+        <v>196172</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>255834</v>
+        <v>254762</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.06789770725657046</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.06012675541271488</v>
+        <v>0.0597886833965609</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.07797231119791088</v>
+        <v>0.07764549845147206</v>
       </c>
     </row>
     <row r="8">
@@ -1032,19 +1032,19 @@
         <v>1574789</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1553852</v>
+        <v>1552412</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>1594363</v>
+        <v>1594508</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9299495400070291</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9175856960923935</v>
+        <v>0.9167357169917377</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9415088059532055</v>
+        <v>0.9415943479396421</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1454</v>
@@ -1053,19 +1053,19 @@
         <v>1483519</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1464144</v>
+        <v>1464128</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1500258</v>
+        <v>1502825</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9343984194623556</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.922195063195122</v>
+        <v>0.9221846924012032</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9449416434498803</v>
+        <v>0.9465581691321144</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>2983</v>
@@ -1074,19 +1074,19 @@
         <v>3058308</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>3025252</v>
+        <v>3026324</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>3083805</v>
+        <v>3084914</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9321022927434295</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9220276888020891</v>
+        <v>0.9223545015485277</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9398732445872852</v>
+        <v>0.9402113166034392</v>
       </c>
     </row>
     <row r="9">
@@ -1178,19 +1178,19 @@
         <v>39232</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>28525</v>
+        <v>27623</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>53901</v>
+        <v>53869</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.07114937571431863</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.05173196372081135</v>
+        <v>0.05009508647006865</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.09775120649058082</v>
+        <v>0.09769326219504888</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>28</v>
@@ -1199,19 +1199,19 @@
         <v>27825</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>18826</v>
+        <v>19100</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>39526</v>
+        <v>39524</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.05840445940776932</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.039517025219063</v>
+        <v>0.040090456037872</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.08296536090729933</v>
+        <v>0.08296129510840784</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>65</v>
@@ -1220,19 +1220,19 @@
         <v>67057</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>51064</v>
+        <v>52132</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>84144</v>
+        <v>82451</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.06524189292239692</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.04968213561314246</v>
+        <v>0.05072090981940847</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.08186603596231685</v>
+        <v>0.08021943228778117</v>
       </c>
     </row>
     <row r="11">
@@ -1249,19 +1249,19 @@
         <v>512176</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>497507</v>
+        <v>497539</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>522883</v>
+        <v>523785</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9288506242856813</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9022487935094191</v>
+        <v>0.9023067378049512</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9482680362791887</v>
+        <v>0.9499049135299313</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>424</v>
@@ -1270,19 +1270,19 @@
         <v>448587</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>436886</v>
+        <v>436888</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>457586</v>
+        <v>457312</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9415955405922307</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9170346390927007</v>
+        <v>0.9170387048915921</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.960482974780937</v>
+        <v>0.9599095439621279</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>914</v>
@@ -1291,19 +1291,19 @@
         <v>960763</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>943676</v>
+        <v>945369</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>976756</v>
+        <v>975688</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9347581070776031</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9181339640376832</v>
+        <v>0.9197805677122185</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9503178643868575</v>
+        <v>0.9492790901805913</v>
       </c>
     </row>
     <row r="12">
@@ -1395,19 +1395,19 @@
         <v>427220</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>390162</v>
+        <v>392975</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>461222</v>
+        <v>465588</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1303875023548679</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1190774442169663</v>
+        <v>0.1199360001544244</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.140764783986977</v>
+        <v>0.1420972124981716</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>556</v>
@@ -1416,19 +1416,19 @@
         <v>572800</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>531505</v>
+        <v>530859</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>616521</v>
+        <v>613396</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1695076079990115</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1572873601588115</v>
+        <v>0.1570960726635292</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1824461428922814</v>
+        <v>0.1815213150850077</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>993</v>
@@ -1437,19 +1437,19 @@
         <v>1000020</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>938882</v>
+        <v>944598</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>1053732</v>
+        <v>1060589</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1502492372171193</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1410635251657069</v>
+        <v>0.14192235129128</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1583193070288458</v>
+        <v>0.1593495410290106</v>
       </c>
     </row>
     <row r="14">
@@ -1466,19 +1466,19 @@
         <v>2849323</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>2815321</v>
+        <v>2810955</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>2886381</v>
+        <v>2883568</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.8696124976451322</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.859235216013023</v>
+        <v>0.8579027875018285</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8809225557830339</v>
+        <v>0.8800639998455756</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>2741</v>
@@ -1487,19 +1487,19 @@
         <v>2806397</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>2762676</v>
+        <v>2765801</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>2847692</v>
+        <v>2848338</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.8304923920009885</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8175538571077187</v>
+        <v>0.8184786849149923</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8427126398411884</v>
+        <v>0.8429039273364707</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>5518</v>
@@ -1508,19 +1508,19 @@
         <v>5655721</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>5602009</v>
+        <v>5595152</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>5716859</v>
+        <v>5711143</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.8497507627828808</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8416806929711542</v>
+        <v>0.8406504589709894</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8589364748342931</v>
+        <v>0.8580776487087201</v>
       </c>
     </row>
     <row r="15">
@@ -1851,19 +1851,19 @@
         <v>342263</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>310899</v>
+        <v>311601</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>371798</v>
+        <v>374223</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.3511679483981608</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.3189877979542561</v>
+        <v>0.3197077179011723</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.3814706631022406</v>
+        <v>0.3839586074592476</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>534</v>
@@ -1872,19 +1872,19 @@
         <v>567581</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>532194</v>
+        <v>527480</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>607689</v>
+        <v>599744</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.4246173821935307</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.3981438808731111</v>
+        <v>0.3946168650314865</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.4546232660340414</v>
+        <v>0.4486791473036044</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>847</v>
@@ -1893,19 +1893,19 @@
         <v>909844</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>861142</v>
+        <v>857952</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>959302</v>
+        <v>962122</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.3936451941185818</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.3725741992189621</v>
+        <v>0.3711939620530113</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.4150432618935914</v>
+        <v>0.4162633749784336</v>
       </c>
     </row>
     <row r="5">
@@ -1922,19 +1922,19 @@
         <v>632380</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>602845</v>
+        <v>600420</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>663744</v>
+        <v>663042</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.6488320516018392</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.6185293368977594</v>
+        <v>0.6160413925407526</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.6810122020457439</v>
+        <v>0.6802922820988277</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>712</v>
@@ -1943,19 +1943,19 @@
         <v>769107</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>728999</v>
+        <v>736944</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>804494</v>
+        <v>809208</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.5753826178064693</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.5453767339659585</v>
+        <v>0.5513208526963956</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.6018561191268889</v>
+        <v>0.6053831349685135</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1307</v>
@@ -1964,19 +1964,19 @@
         <v>1401487</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1352029</v>
+        <v>1349209</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1450189</v>
+        <v>1453379</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.6063548058814181</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.5849567381064086</v>
+        <v>0.5837366250215664</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.6274258007810376</v>
+        <v>0.628806037946989</v>
       </c>
     </row>
     <row r="6">
@@ -2068,19 +2068,19 @@
         <v>189893</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>166955</v>
+        <v>166578</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>219221</v>
+        <v>218542</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.09668910530235196</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.0850093250048989</v>
+        <v>0.08481735408270751</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1116219635396073</v>
+        <v>0.1112763162055143</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>132</v>
@@ -2089,19 +2089,19 @@
         <v>146100</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>122872</v>
+        <v>122197</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>172230</v>
+        <v>172548</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.08326717991316356</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.07002889326162483</v>
+        <v>0.06964387941193592</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.09815973872723446</v>
+        <v>0.09834103879682897</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>305</v>
@@ -2110,19 +2110,19 @@
         <v>335993</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>301773</v>
+        <v>300685</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>372714</v>
+        <v>373759</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.09035598977190966</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.08115353543435008</v>
+        <v>0.08086071221367376</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1002310670125427</v>
+        <v>0.1005120191290449</v>
       </c>
     </row>
     <row r="8">
@@ -2139,19 +2139,19 @@
         <v>1774064</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1744736</v>
+        <v>1745415</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>1797002</v>
+        <v>1797379</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.903310894697648</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8883780364603925</v>
+        <v>0.8887236837944857</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9149906749951009</v>
+        <v>0.9151826459172925</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1501</v>
@@ -2160,19 +2160,19 @@
         <v>1608492</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1582362</v>
+        <v>1582044</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1631720</v>
+        <v>1632395</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9167328200868364</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9018402612727654</v>
+        <v>0.9016589612031708</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.929971106738375</v>
+        <v>0.9303561205880639</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>3184</v>
@@ -2181,19 +2181,19 @@
         <v>3382556</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>3345835</v>
+        <v>3344790</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>3416776</v>
+        <v>3417864</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9096440102280904</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.8997689329874573</v>
+        <v>0.8994879808709551</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9188464645656499</v>
+        <v>0.919139287786326</v>
       </c>
     </row>
     <row r="9">
@@ -2285,19 +2285,19 @@
         <v>43087</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>31239</v>
+        <v>31034</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>59831</v>
+        <v>58942</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.08954384907496647</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.06492191162233478</v>
+        <v>0.06449621945803193</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1243427385166436</v>
+        <v>0.1224934614166169</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>25</v>
@@ -2306,19 +2306,19 @@
         <v>31514</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>21104</v>
+        <v>20744</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>45639</v>
+        <v>46747</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.06871217628971539</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.04601447592927731</v>
+        <v>0.04523069039477133</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.09951131305780948</v>
+        <v>0.1019279342437908</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>62</v>
@@ -2327,19 +2327,19 @@
         <v>74600</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>57940</v>
+        <v>58134</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>94415</v>
+        <v>93904</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.07937793567255041</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.06165017496854897</v>
+        <v>0.06185735648947163</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.100461744657868</v>
+        <v>0.09991754000365793</v>
       </c>
     </row>
     <row r="11">
@@ -2356,19 +2356,19 @@
         <v>438094</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>421350</v>
+        <v>422239</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>449942</v>
+        <v>450147</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9104561509250335</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.8756572614833564</v>
+        <v>0.8775065385833831</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9350780883776653</v>
+        <v>0.9355037805419681</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>387</v>
@@ -2377,19 +2377,19 @@
         <v>427117</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>412992</v>
+        <v>411884</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>437527</v>
+        <v>437887</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9312878237102846</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9004886869421904</v>
+        <v>0.8980720657562088</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9539855240707227</v>
+        <v>0.9547693096052287</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>788</v>
@@ -2398,19 +2398,19 @@
         <v>865213</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>845398</v>
+        <v>845909</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>881873</v>
+        <v>881679</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9206220643274495</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.8995382553421319</v>
+        <v>0.9000824599963421</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9383498250314508</v>
+        <v>0.9381426435105281</v>
       </c>
     </row>
     <row r="12">
@@ -2502,19 +2502,19 @@
         <v>575244</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>535524</v>
+        <v>527589</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>622912</v>
+        <v>618579</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1682105858273572</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1565960257042991</v>
+        <v>0.1542756282108993</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1821495817089553</v>
+        <v>0.1808827170094543</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>691</v>
@@ -2523,19 +2523,19 @@
         <v>745194</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>694229</v>
+        <v>695516</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>797652</v>
+        <v>799746</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2099191775312046</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1955624506725158</v>
+        <v>0.1959248703870761</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2246962868872243</v>
+        <v>0.2252862115836032</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>1214</v>
@@ -2544,19 +2544,19 @@
         <v>1320438</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>1244896</v>
+        <v>1252644</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>1385121</v>
+        <v>1384570</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1894542464354641</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1786156330510075</v>
+        <v>0.1797272860375281</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.198734888558409</v>
+        <v>0.1986558567153272</v>
       </c>
     </row>
     <row r="14">
@@ -2573,19 +2573,19 @@
         <v>2844538</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>2796870</v>
+        <v>2801203</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>2884258</v>
+        <v>2892193</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.8317894141726428</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8178504182910445</v>
+        <v>0.8191172829905456</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8434039742957009</v>
+        <v>0.8457243717891008</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>2600</v>
@@ -2594,19 +2594,19 @@
         <v>2804717</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>2752259</v>
+        <v>2750165</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>2855682</v>
+        <v>2854395</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.7900808224687954</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.7753037131127758</v>
+        <v>0.7747137884163969</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8044375493274845</v>
+        <v>0.8040751296129239</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>5279</v>
@@ -2615,19 +2615,19 @@
         <v>5649255</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>5584572</v>
+        <v>5585123</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>5724797</v>
+        <v>5717049</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.810545753564536</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8012651114415911</v>
+        <v>0.8013441432846727</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8213843669489926</v>
+        <v>0.8202727139624718</v>
       </c>
     </row>
     <row r="15">
@@ -2958,19 +2958,19 @@
         <v>228940</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>205822</v>
+        <v>205569</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>252614</v>
+        <v>258358</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.303493678162032</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.2728480580518701</v>
+        <v>0.2725125384881124</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.3348777898558359</v>
+        <v>0.3424928892858295</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>325</v>
@@ -2979,19 +2979,19 @@
         <v>378510</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>345685</v>
+        <v>347770</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>412345</v>
+        <v>412071</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.3805421184530533</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.3475413382664795</v>
+        <v>0.3496366731279108</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.4145590690773324</v>
+        <v>0.4142832640052195</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>567</v>
@@ -3000,19 +3000,19 @@
         <v>607450</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>568783</v>
+        <v>568670</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>652061</v>
+        <v>649912</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.3473111226302605</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.3252033872281734</v>
+        <v>0.3251385701342275</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.3728176868902265</v>
+        <v>0.3715891757697474</v>
       </c>
     </row>
     <row r="5">
@@ -3029,19 +3029,19 @@
         <v>525407</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>501733</v>
+        <v>495989</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>548525</v>
+        <v>548778</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.6965063218379679</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.6651222101441642</v>
+        <v>0.6575071107141706</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.72715194194813</v>
+        <v>0.7274874615118876</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>567</v>
@@ -3050,19 +3050,19 @@
         <v>616150</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>582315</v>
+        <v>582589</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>648975</v>
+        <v>646890</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.6194578815469467</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.5854409309226676</v>
+        <v>0.5857167359947805</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.6524586617335205</v>
+        <v>0.6503633268720892</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1087</v>
@@ -3071,19 +3071,19 @@
         <v>1141557</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1096946</v>
+        <v>1099095</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1180224</v>
+        <v>1180337</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.6526888773697395</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.6271823131097733</v>
+        <v>0.6284108242302525</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.674796612771826</v>
+        <v>0.6748614298657725</v>
       </c>
     </row>
     <row r="6">
@@ -3175,19 +3175,19 @@
         <v>227097</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>200850</v>
+        <v>198304</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>257567</v>
+        <v>255572</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1093713354296117</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.09673070179139973</v>
+        <v>0.09550437102211155</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1240458045071107</v>
+        <v>0.12308531376468</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>189</v>
@@ -3196,19 +3196,19 @@
         <v>217786</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>190707</v>
+        <v>190556</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>248646</v>
+        <v>249305</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1095339828585188</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.09591476016851846</v>
+        <v>0.09583856864611906</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1250543616901836</v>
+        <v>0.1253858700799874</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>403</v>
@@ -3217,19 +3217,19 @@
         <v>444883</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>406569</v>
+        <v>402153</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>492069</v>
+        <v>484947</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1094508967956279</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1000248005093042</v>
+        <v>0.09893840772906497</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1210595220537948</v>
+        <v>0.1193075210929784</v>
       </c>
     </row>
     <row r="8">
@@ -3246,19 +3246,19 @@
         <v>1849288</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1818818</v>
+        <v>1820813</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>1875535</v>
+        <v>1878081</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.8906286645703884</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8759541954928892</v>
+        <v>0.8769146862353199</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9032692982086002</v>
+        <v>0.9044956289778884</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1719</v>
@@ -3267,19 +3267,19 @@
         <v>1770514</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1739654</v>
+        <v>1738995</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1797593</v>
+        <v>1797744</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.8904660171414812</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8749456383098163</v>
+        <v>0.8746141299200126</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9040852398314815</v>
+        <v>0.9041614313538808</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>3457</v>
@@ -3288,19 +3288,19 @@
         <v>3619802</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>3572616</v>
+        <v>3579738</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>3658116</v>
+        <v>3662532</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.8905491032043721</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.8789404779462053</v>
+        <v>0.8806924789070215</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.899975199490696</v>
+        <v>0.9010615922709351</v>
       </c>
     </row>
     <row r="9">
@@ -3392,19 +3392,19 @@
         <v>56184</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>42385</v>
+        <v>42331</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>72944</v>
+        <v>74629</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1027349170186439</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.07750161687273764</v>
+        <v>0.07740343788685528</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1333806950021418</v>
+        <v>0.1364626220866975</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>24</v>
@@ -3413,19 +3413,19 @@
         <v>32077</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>21172</v>
+        <v>20717</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>47674</v>
+        <v>46921</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.05841247289612374</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.03855485133092888</v>
+        <v>0.03772711208851103</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.08681602447151096</v>
+        <v>0.08544402420894151</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>74</v>
@@ -3434,19 +3434,19 @@
         <v>88261</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>69571</v>
+        <v>69786</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>109859</v>
+        <v>107709</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.08052811707674319</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.06347572730985432</v>
+        <v>0.06367173105168113</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1002335154843624</v>
+        <v>0.09827239142829428</v>
       </c>
     </row>
     <row r="11">
@@ -3463,19 +3463,19 @@
         <v>490702</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>473942</v>
+        <v>472257</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>504501</v>
+        <v>504555</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.8972650829813561</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.8666193049978581</v>
+        <v>0.8635373779133019</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9224983831272627</v>
+        <v>0.9225965621131447</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>502</v>
@@ -3484,19 +3484,19 @@
         <v>517063</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>501466</v>
+        <v>502219</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>527968</v>
+        <v>528423</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9415875271038763</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9131839755284891</v>
+        <v>0.9145559757910584</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.961445148669071</v>
+        <v>0.962272887911489</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>953</v>
@@ -3505,19 +3505,19 @@
         <v>1007766</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>986168</v>
+        <v>988318</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1026456</v>
+        <v>1026241</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9194718829232568</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.8997664845156377</v>
+        <v>0.9017276085717059</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.936524272690146</v>
+        <v>0.9363282689483192</v>
       </c>
     </row>
     <row r="12">
@@ -3609,19 +3609,19 @@
         <v>512221</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>467745</v>
+        <v>470688</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>553965</v>
+        <v>555446</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.151651487680332</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1384836323213815</v>
+        <v>0.1393551301409634</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1640105656213535</v>
+        <v>0.1644490183247872</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>538</v>
@@ -3630,19 +3630,19 @@
         <v>628373</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>578845</v>
+        <v>580826</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>676200</v>
+        <v>678043</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1779035303501524</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.163881301293882</v>
+        <v>0.1644421667171634</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1914440832233501</v>
+        <v>0.1919659180120621</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>1044</v>
@@ -3651,19 +3651,19 @@
         <v>1140594</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>1072433</v>
+        <v>1080094</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>1203475</v>
+        <v>1203279</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1650709714025272</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1552065014567118</v>
+        <v>0.1563151367900615</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1741713296476161</v>
+        <v>0.1741429620881319</v>
       </c>
     </row>
     <row r="14">
@@ -3680,19 +3680,19 @@
         <v>2865397</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>2823653</v>
+        <v>2822172</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>2909873</v>
+        <v>2906930</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.848348512319668</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8359894343786465</v>
+        <v>0.8355509816752128</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8615163676786185</v>
+        <v>0.8606448698590365</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>2788</v>
@@ -3701,19 +3701,19 @@
         <v>2903727</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>2855900</v>
+        <v>2854057</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>2953255</v>
+        <v>2951274</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.8220964696498476</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8085559167766497</v>
+        <v>0.8080340819879379</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8361186987061179</v>
+        <v>0.8355578332828367</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>5497</v>
@@ -3722,19 +3722,19 @@
         <v>5769124</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>5706243</v>
+        <v>5706439</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>5837285</v>
+        <v>5829624</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.8349290285974729</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8258286703523837</v>
+        <v>0.8258570379118682</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8447934985432881</v>
+        <v>0.8436848632099384</v>
       </c>
     </row>
     <row r="15">
@@ -4065,19 +4065,19 @@
         <v>202054</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>182012</v>
+        <v>182863</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>224879</v>
+        <v>225216</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.3501908794229439</v>
+        <v>0.3501908794229441</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.31545510988012</v>
+        <v>0.3169302852476056</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.389751169423996</v>
+        <v>0.3903339568605688</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>750</v>
@@ -4086,19 +4086,19 @@
         <v>399259</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>375763</v>
+        <v>376368</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>421961</v>
+        <v>419913</v>
       </c>
       <c r="N4" s="6" t="n">
-        <v>0.486817960064083</v>
+        <v>0.4868179600640831</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.4581692791394739</v>
+        <v>0.4589070191848078</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.5144986221089335</v>
+        <v>0.5120012677546187</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>1037</v>
@@ -4107,19 +4107,19 @@
         <v>601313</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>572147</v>
+        <v>572272</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>634330</v>
+        <v>632549</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.4303938677585532</v>
+        <v>0.430393867758553</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.4095183429327675</v>
+        <v>0.4096079243948501</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.454025956751575</v>
+        <v>0.4527517533922586</v>
       </c>
     </row>
     <row r="5">
@@ -4136,19 +4136,19 @@
         <v>374928</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>352103</v>
+        <v>351766</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>394970</v>
+        <v>394119</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.649809120577056</v>
+        <v>0.6498091205770561</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.6102488305760041</v>
+        <v>0.6096660431394311</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.68454489011988</v>
+        <v>0.6830697147523944</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>674</v>
@@ -4157,19 +4157,19 @@
         <v>420881</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>398179</v>
+        <v>400227</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>444377</v>
+        <v>443772</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.513182039935917</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.4855013778910666</v>
+        <v>0.4879987322453812</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.541830720860526</v>
+        <v>0.5410929808151922</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1076</v>
@@ -4178,19 +4178,19 @@
         <v>795809</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>762792</v>
+        <v>764573</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>824975</v>
+        <v>824850</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.569606132241447</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.5459740432484249</v>
+        <v>0.5472482466077414</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.5904816570672325</v>
+        <v>0.5903920756051498</v>
       </c>
     </row>
     <row r="6">
@@ -4282,19 +4282,19 @@
         <v>349775</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>318071</v>
+        <v>319044</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>383193</v>
+        <v>386157</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1569415742188433</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.142716413114571</v>
+        <v>0.1431530900986112</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1719359963947816</v>
+        <v>0.1732659314080022</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>525</v>
@@ -4303,19 +4303,19 @@
         <v>295123</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>270350</v>
+        <v>268121</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>321041</v>
+        <v>320223</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1361034574878948</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1246790048065885</v>
+        <v>0.1236507740207</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1480564089949921</v>
+        <v>0.1476787656074881</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>948</v>
@@ -4324,19 +4324,19 @@
         <v>644898</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>604921</v>
+        <v>606259</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>684875</v>
+        <v>692866</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1466654509531637</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1375737845247249</v>
+        <v>0.1378780316145532</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1557571946393801</v>
+        <v>0.157574530057118</v>
       </c>
     </row>
     <row r="8">
@@ -4353,19 +4353,19 @@
         <v>1878919</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1845501</v>
+        <v>1842537</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>1910623</v>
+        <v>1909650</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.8430584257811569</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8280640036052184</v>
+        <v>0.8267340685919978</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8572835868854289</v>
+        <v>0.8568469099013887</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>2391</v>
@@ -4374,19 +4374,19 @@
         <v>1873249</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1847331</v>
+        <v>1848149</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1898022</v>
+        <v>1900251</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.8638965425121051</v>
+        <v>0.8638965425121052</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8519435910050079</v>
+        <v>0.8523212343925118</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.8753209951934116</v>
+        <v>0.8763492259793003</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>3958</v>
@@ -4395,19 +4395,19 @@
         <v>3752168</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>3712191</v>
+        <v>3704200</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>3792145</v>
+        <v>3790807</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.8533345490468361</v>
+        <v>0.8533345490468363</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.8442428053606197</v>
+        <v>0.842425469942882</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.8624262154752749</v>
+        <v>0.8621219683854469</v>
       </c>
     </row>
     <row r="9">
@@ -4499,19 +4499,19 @@
         <v>121996</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>103835</v>
+        <v>104065</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>140138</v>
+        <v>141382</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.1720088012267926</v>
+        <v>0.1720088012267925</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1464028352337543</v>
+        <v>0.1467271383393552</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1975879157796114</v>
+        <v>0.1993420704670515</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>142</v>
@@ -4520,19 +4520,19 @@
         <v>85395</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>72102</v>
+        <v>72480</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>100003</v>
+        <v>100027</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.116311537509434</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.0982060500870772</v>
+        <v>0.09872078638295363</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1362072511003201</v>
+        <v>0.1362398942362047</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>294</v>
@@ -4541,19 +4541,19 @@
         <v>207391</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>184962</v>
+        <v>183729</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>230738</v>
+        <v>229559</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1436787430571199</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1281398542640565</v>
+        <v>0.127285935533444</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1598534514652951</v>
+        <v>0.159036231393962</v>
       </c>
     </row>
     <row r="11">
@@ -4570,19 +4570,19 @@
         <v>587246</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>569104</v>
+        <v>567860</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>605407</v>
+        <v>605177</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.8279911987732074</v>
+        <v>0.8279911987732073</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.8024120842203882</v>
+        <v>0.8006579295329481</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.8535971647662454</v>
+        <v>0.8532728616606446</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>861</v>
@@ -4591,19 +4591,19 @@
         <v>648800</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>634192</v>
+        <v>634168</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>662093</v>
+        <v>661715</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.883688462490566</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.8637927488996797</v>
+        <v>0.8637601057637951</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9017939499129228</v>
+        <v>0.9012792136170461</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1388</v>
@@ -4612,19 +4612,19 @@
         <v>1236045</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1212698</v>
+        <v>1213877</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1258474</v>
+        <v>1259707</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.8563212569428803</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.8401465485347047</v>
+        <v>0.8409637686060381</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.8718601457359436</v>
+        <v>0.872714064466556</v>
       </c>
     </row>
     <row r="12">
@@ -4716,19 +4716,19 @@
         <v>673824</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>631597</v>
+        <v>623639</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>717777</v>
+        <v>717506</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1917041757901471</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1796904552855406</v>
+        <v>0.1774264664881384</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2042086661721059</v>
+        <v>0.2041317388951899</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>1417</v>
@@ -4737,19 +4737,19 @@
         <v>779777</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>739198</v>
+        <v>744445</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>815228</v>
+        <v>826117</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2094651306253862</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1985646564493058</v>
+        <v>0.1999741264806519</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2189880052115679</v>
+        <v>0.221912887489089</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>2279</v>
@@ -4758,19 +4758,19 @@
         <v>1453602</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>1392322</v>
+        <v>1391225</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>1515279</v>
+        <v>1513932</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2008396087872189</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1923728310026104</v>
+        <v>0.1922211488267585</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2093613693517853</v>
+        <v>0.2091752029379</v>
       </c>
     </row>
     <row r="14">
@@ -4787,19 +4787,19 @@
         <v>2841093</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>2797140</v>
+        <v>2797411</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>2883320</v>
+        <v>2891278</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.8082958242098529</v>
+        <v>0.808295824209853</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.7957913338278942</v>
+        <v>0.7958682611048101</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8203095447144593</v>
+        <v>0.8225735335118616</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>3926</v>
@@ -4808,19 +4808,19 @@
         <v>2942930</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>2907479</v>
+        <v>2896590</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>2983509</v>
+        <v>2978262</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.7905348693746135</v>
+        <v>0.7905348693746137</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.7810119947884323</v>
+        <v>0.7780871125109108</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8014353435506941</v>
+        <v>0.8000258735193483</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>6422</v>
@@ -4829,19 +4829,19 @@
         <v>5784023</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>5722346</v>
+        <v>5723693</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>5845303</v>
+        <v>5846400</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.7991603912127813</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.7906386306482145</v>
+        <v>0.7908247970621</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8076271689973895</v>
+        <v>0.8077788511732413</v>
       </c>
     </row>
     <row r="15">
